--- a/Assets/06.Table/OkTable.xlsx
+++ b/Assets/06.Table/OkTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project3\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE22EFF0-9B6D-496D-95EF-366555E7FDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF1B2F2-C19C-479B-B74F-FA9AAA4C5011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -56,75 +56,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9000항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000극</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30극</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30항</t>
+    <t>60겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10겁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -211,9 +211,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
@@ -542,7 +539,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E19"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -574,306 +571,306 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
-        <v>3E+19</v>
+      <c r="B2" s="4">
+        <v>9.9999999999999998E+72</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
         <v>20</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>3E+26</v>
+      <c r="B3" s="4">
+        <v>4.9999999999999998E+73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
         <v>20</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <v>3.0000000000000002E+34</v>
+      <c r="B4" s="4">
+        <v>9.9999999999999995E+73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>20</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
-        <v>3.0000000000000002E+37</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
+      <c r="B5" s="4">
+        <v>1.9999999999999999E+74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>20</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
-        <v>3.0000000000000001E+38</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
+      <c r="B6" s="4">
+        <v>3E+74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="1">
         <v>20</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
-        <v>1E+40</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
+      <c r="B7" s="4">
+        <v>4.9999999999999996E+74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
       </c>
       <c r="D7" s="1">
         <v>20</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
-        <v>2.9999999999999998E+41</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
+      <c r="B8" s="4">
+        <v>7.0000000000000003E+74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="1">
         <v>20</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
-        <v>3.0000000000000002E+43</v>
+      <c r="B9" s="4">
+        <v>9.9999999999999993E+74</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
-        <v>2.9999999999999999E+44</v>
+      <c r="B10" s="4">
+        <v>1.5E+75</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1">
         <v>20</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
-        <v>3.0000000000000001E+45</v>
+      <c r="B11" s="4">
+        <v>1.9999999999999999E+75</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1">
         <v>20</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
-        <v>3.0000000000000002E+46</v>
+      <c r="B12" s="4">
+        <v>3E+75</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1">
         <v>20</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
-        <v>3.0000000000000002E+49</v>
+      <c r="B13" s="4">
+        <v>5.0000000000000002E+75</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1">
         <v>20</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
-        <v>9.9999999999999999E+50</v>
+      <c r="B14" s="4">
+        <v>6.9999999999999997E+75</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1">
         <v>20</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
-        <v>3E+52</v>
+      <c r="B15" s="4">
+        <v>1E+76</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1">
         <v>20</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
-        <v>3E+53</v>
+      <c r="B16" s="4">
+        <v>4.9999999999999999E+76</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1">
         <v>20</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
-        <v>2.9999999999999999E+54</v>
+      <c r="B17" s="4">
+        <v>9.9999999999999998E+76</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1">
         <v>20</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="3">
-        <v>9E+55</v>
+      <c r="B18" s="4">
+        <v>2.9999999999999998E+77</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1">
         <v>20</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="5">
-        <v>2.0000000000000002E+56</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="B19" s="4">
+        <v>5.9999999999999996E+77</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3">
         <v>20</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/OkTable.xlsx
+++ b/Assets/06.Table/OkTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF1B2F2-C19C-479B-B74F-FA9AAA4C5011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E12D751-5CAD-46A1-AFEC-F2C778E1F133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="33075" windowHeight="13710" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="OkTable" sheetId="1" r:id="rId1"/>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>60겁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1000대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,6 +121,10 @@
   </si>
   <si>
     <t>10겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20겁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,7 +539,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -575,7 +575,7 @@
         <v>9.9999999999999998E+72</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>20</v>
@@ -592,7 +592,7 @@
         <v>4.9999999999999998E+73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
         <v>20</v>
@@ -609,7 +609,7 @@
         <v>9.9999999999999995E+73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1">
         <v>20</v>
@@ -626,7 +626,7 @@
         <v>1.9999999999999999E+74</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1">
         <v>20</v>
@@ -643,7 +643,7 @@
         <v>3E+74</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
         <v>20</v>
@@ -660,13 +660,13 @@
         <v>4.9999999999999996E+74</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1">
         <v>20</v>
       </c>
       <c r="E7" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -677,13 +677,13 @@
         <v>7.0000000000000003E+74</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1">
         <v>20</v>
       </c>
       <c r="E8" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -694,13 +694,13 @@
         <v>9.9999999999999993E+74</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
       </c>
       <c r="E9" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -711,13 +711,13 @@
         <v>1.5E+75</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1">
         <v>20</v>
       </c>
       <c r="E10" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -728,13 +728,13 @@
         <v>1.9999999999999999E+75</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1">
         <v>20</v>
       </c>
       <c r="E11" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -745,13 +745,13 @@
         <v>3E+75</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1">
         <v>20</v>
       </c>
       <c r="E12" s="1">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -762,13 +762,13 @@
         <v>5.0000000000000002E+75</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1">
         <v>20</v>
       </c>
       <c r="E13" s="1">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -779,13 +779,13 @@
         <v>6.9999999999999997E+75</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1">
         <v>20</v>
       </c>
       <c r="E14" s="1">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -796,13 +796,13 @@
         <v>1E+76</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1">
         <v>20</v>
       </c>
       <c r="E15" s="1">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -813,13 +813,13 @@
         <v>4.9999999999999999E+76</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1">
         <v>20</v>
       </c>
       <c r="E16" s="1">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -830,13 +830,13 @@
         <v>9.9999999999999998E+76</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1">
         <v>20</v>
       </c>
       <c r="E17" s="1">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -844,16 +844,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>2.9999999999999998E+77</v>
+        <v>2E+77</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1">
         <v>20</v>
       </c>
       <c r="E18" s="1">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -861,16 +861,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>5.9999999999999996E+77</v>
+        <v>2.9999999999999998E+77</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D19" s="3">
         <v>20</v>
       </c>
       <c r="E19" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
